--- a/outputs/05-analisis-datos-2/tablas/outwrite.xlsx
+++ b/outputs/05-analisis-datos-2/tablas/outwrite.xlsx
@@ -27,73 +27,73 @@
     <t/>
   </si>
   <si>
-    <t>Census region=NE</t>
+    <t>Census region=1. NE</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=N Cntrl</t>
+    <t>Census region=2. N Cntrl</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=South</t>
+    <t>Census region=3. South</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=West</t>
+    <t>Census region=4. West</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=NE * Indicator=No</t>
+    <t>Census region=1. NE * Indicator=0. No</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=NE * Indicator=Yes</t>
+    <t>Census region=1. NE * Indicator=1. Yes</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=N Cntrl * Indicator=No</t>
+    <t>Census region=2. N Cntrl * Indicator=0. No</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=N Cntrl * Indicator=Yes</t>
+    <t>Census region=2. N Cntrl * Indicator=1. Yes</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=South * Indicator=No</t>
+    <t>Census region=3. South * Indicator=0. No</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=South * Indicator=Yes</t>
+    <t>Census region=3. South * Indicator=1. Yes</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=West * Indicator=No</t>
+    <t>Census region=4. West * Indicator=0. No</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=West * Indicator=Yes</t>
+    <t>Census region=4. West * Indicator=1. Yes</t>
   </si>
   <si>
     <t/>

--- a/outputs/05-analisis-datos-2/tablas/outwrite.xlsx
+++ b/outputs/05-analisis-datos-2/tablas/outwrite.xlsx
@@ -27,73 +27,73 @@
     <t/>
   </si>
   <si>
-    <t>Census region=1. NE</t>
+    <t>Census region=NE</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=2. N Cntrl</t>
+    <t>Census region=N Cntrl</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=3. South</t>
+    <t>Census region=South</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=4. West</t>
+    <t>Census region=West</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=1. NE * Indicator=0. No</t>
+    <t>Census region=NE * Indicator=No</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=1. NE * Indicator=1. Yes</t>
+    <t>Census region=NE * Indicator=Yes</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=2. N Cntrl * Indicator=0. No</t>
+    <t>Census region=N Cntrl * Indicator=No</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=2. N Cntrl * Indicator=1. Yes</t>
+    <t>Census region=N Cntrl * Indicator=Yes</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=3. South * Indicator=0. No</t>
+    <t>Census region=South * Indicator=No</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=3. South * Indicator=1. Yes</t>
+    <t>Census region=South * Indicator=Yes</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=4. West * Indicator=0. No</t>
+    <t>Census region=West * Indicator=No</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Census region=4. West * Indicator=1. Yes</t>
+    <t>Census region=West * Indicator=Yes</t>
   </si>
   <si>
     <t/>
